--- a/documents/AppliedSciences/Basic_queries_macOS12.3.1.xlsx
+++ b/documents/AppliedSciences/Basic_queries_macOS12.3.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/graafitietokantaprojekti/documents/AppliedSciences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D478DBC-7D95-E740-B82C-1910A9A7ADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D2F084-63BA-4A47-A233-80CC8D98BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="6040" windowWidth="37940" windowHeight="20840" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="3500" yWindow="6020" windowWidth="37940" windowHeight="20840" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="34">
   <si>
     <t xml:space="preserve">Short query, workhours price </t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Neo4J 4.4.8 CALL indexed</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1140,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>286098</c:v>
+                  <c:v>276935.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7242</c:v>
@@ -1214,7 +1217,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>255474</c:v>
+                  <c:v>251137.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7117</c:v>
@@ -4416,10 +4419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="108" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97:B98"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5916,10 +5919,10 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>272243</v>
+        <v>249674</v>
       </c>
       <c r="C72">
-        <v>254427</v>
+        <v>244541</v>
       </c>
       <c r="D72">
         <v>7147</v>
@@ -6125,6 +6128,12 @@
       <c r="A79" t="s">
         <v>7</v>
       </c>
+      <c r="B79">
+        <v>249864</v>
+      </c>
+      <c r="C79">
+        <v>254427</v>
+      </c>
       <c r="D79">
         <v>7180</v>
       </c>
@@ -6154,6 +6163,12 @@
       <c r="A80" t="s">
         <v>8</v>
       </c>
+      <c r="B80">
+        <v>252616</v>
+      </c>
+      <c r="C80">
+        <v>251646</v>
+      </c>
       <c r="D80">
         <v>7186</v>
       </c>
@@ -6183,6 +6198,12 @@
       <c r="A81" t="s">
         <v>9</v>
       </c>
+      <c r="B81">
+        <v>258438</v>
+      </c>
+      <c r="C81">
+        <v>244684</v>
+      </c>
       <c r="D81">
         <v>7198</v>
       </c>
@@ -6212,6 +6233,12 @@
       <c r="A82" t="s">
         <v>10</v>
       </c>
+      <c r="B82">
+        <v>270604</v>
+      </c>
+      <c r="C82">
+        <v>244854</v>
+      </c>
       <c r="D82">
         <v>7351</v>
       </c>
@@ -6241,6 +6268,12 @@
       <c r="A83" t="s">
         <v>15</v>
       </c>
+      <c r="B83">
+        <v>272243</v>
+      </c>
+      <c r="C83">
+        <v>246841</v>
+      </c>
       <c r="D83">
         <v>7413</v>
       </c>
@@ -6270,6 +6303,12 @@
       <c r="A84" t="s">
         <v>16</v>
       </c>
+      <c r="B84">
+        <v>321192</v>
+      </c>
+      <c r="C84">
+        <v>247028</v>
+      </c>
       <c r="D84">
         <v>7447</v>
       </c>
@@ -6300,10 +6339,12 @@
         <v>11</v>
       </c>
       <c r="B87">
-        <v>286098</v>
+        <f>AVERAGE(B75:B84)</f>
+        <v>276935.2</v>
       </c>
       <c r="C87">
-        <v>255474</v>
+        <f>AVERAGE(C75:C84)</f>
+        <v>251137.6</v>
       </c>
       <c r="D87">
         <v>7242</v>
@@ -6336,11 +6377,11 @@
       </c>
       <c r="B88" s="4">
         <f>(H87-B87)/H87</f>
-        <v>-0.36356617226522286</v>
+        <v>-0.3198955275098182</v>
       </c>
       <c r="C88" s="4">
         <f>(I87-C87)/I87</f>
-        <v>-0.24501213462119514</v>
+        <v>-0.22387937504264177</v>
       </c>
       <c r="D88" s="6">
         <f>(H87-D87)/H87</f>
@@ -6373,11 +6414,11 @@
       </c>
       <c r="B89" s="7">
         <f t="shared" ref="B89:F89" si="2">ROUND(B90,2)</f>
-        <v>8523.93</v>
+        <v>21892.91</v>
       </c>
       <c r="C89" s="8">
         <f t="shared" si="2"/>
-        <v>570.03</v>
+        <v>4761.8599999999997</v>
       </c>
       <c r="D89" s="8">
         <f t="shared" si="2"/>
@@ -6415,10 +6456,12 @@
         <v>17</v>
       </c>
       <c r="B90">
-        <v>8523.9308237162495</v>
+        <f>STDEV(B75:B84)</f>
+        <v>21892.913941374834</v>
       </c>
       <c r="C90">
-        <v>570.02763090923895</v>
+        <f>STDEV(C75:C84)</f>
+        <v>4761.8620820944498</v>
       </c>
       <c r="D90">
         <v>108.32732803867999</v>
@@ -6463,11 +6506,11 @@
       </c>
       <c r="B93" s="16">
         <f>B87</f>
-        <v>286098</v>
+        <v>276935.2</v>
       </c>
       <c r="C93" s="16">
         <f>C87</f>
-        <v>255474</v>
+        <v>251137.6</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6593,10 +6636,10 @@
         <v>1</v>
       </c>
       <c r="B107">
-        <v>3995147</v>
+        <v>3793155</v>
       </c>
       <c r="C107">
-        <v>3935800</v>
+        <v>3801571</v>
       </c>
       <c r="D107">
         <v>54</v>
@@ -6803,7 +6846,12 @@
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="3"/>
+      <c r="B115" s="3">
+        <v>3995147</v>
+      </c>
+      <c r="C115">
+        <v>3935800</v>
+      </c>
       <c r="D115" s="3">
         <v>58</v>
       </c>
@@ -6833,7 +6881,12 @@
       <c r="A116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="3"/>
+      <c r="B116" s="3">
+        <v>3819644</v>
+      </c>
+      <c r="C116">
+        <v>3827567</v>
+      </c>
       <c r="D116" s="3">
         <v>58</v>
       </c>
@@ -6863,7 +6916,12 @@
       <c r="A117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="3"/>
+      <c r="B117" s="3">
+        <v>3798066</v>
+      </c>
+      <c r="C117">
+        <v>3811499</v>
+      </c>
       <c r="D117" s="3">
         <v>59</v>
       </c>
@@ -6893,7 +6951,12 @@
       <c r="A118" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="3"/>
+      <c r="B118" s="3">
+        <v>3798279</v>
+      </c>
+      <c r="C118">
+        <v>3816055</v>
+      </c>
       <c r="D118" s="3">
         <v>59</v>
       </c>
@@ -6923,7 +6986,12 @@
       <c r="A119" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B119" s="3"/>
+      <c r="B119" s="3">
+        <v>3799595</v>
+      </c>
+      <c r="C119">
+        <v>3819076</v>
+      </c>
       <c r="D119" s="3">
         <v>61</v>
       </c>
@@ -6953,7 +7021,12 @@
       <c r="A120" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B120" s="3"/>
+      <c r="B120" s="3">
+        <v>3809266</v>
+      </c>
+      <c r="C120">
+        <v>3825864</v>
+      </c>
       <c r="D120" s="3">
         <v>77</v>
       </c>
@@ -6984,10 +7057,12 @@
         <v>11</v>
       </c>
       <c r="B122" s="2">
-        <v>4091251</v>
+        <f>AVERAGE(B111:B120)</f>
+        <v>3938500.3</v>
       </c>
       <c r="C122">
-        <v>3968740</v>
+        <f>AVERAGE(C111:C120)</f>
+        <v>3891082.4</v>
       </c>
       <c r="D122" s="3">
         <v>59</v>
@@ -7020,11 +7095,11 @@
       </c>
       <c r="B123" s="4">
         <f>(H122-B122)/H122</f>
-        <v>-71775.333333333328</v>
+        <v>-69095.49649122807</v>
       </c>
       <c r="C123" s="4">
         <f>(C122-I122)/C122</f>
-        <v>0.99998614169736488</v>
+        <v>0.99998586511557808</v>
       </c>
       <c r="D123" s="6">
         <f>(H122-D122)/H122</f>
@@ -7057,11 +7132,11 @@
       </c>
       <c r="B124" s="7">
         <f t="shared" ref="B124:G124" si="3">ROUND(B125,2)</f>
-        <v>45667.23</v>
+        <v>146965.35999999999</v>
       </c>
       <c r="C124" s="8">
         <f t="shared" si="3"/>
-        <v>28945.98</v>
+        <v>78109.34</v>
       </c>
       <c r="D124" s="8">
         <f t="shared" si="3"/>
@@ -7099,10 +7174,12 @@
         <v>17</v>
       </c>
       <c r="B125" s="2">
-        <v>45667.232949347803</v>
+        <f>STDEV(B111:B120)</f>
+        <v>146965.36326332891</v>
       </c>
       <c r="C125">
-        <v>28945.977055326701</v>
+        <f>STDEV(C111:C120)</f>
+        <v>78109.335821583387</v>
       </c>
       <c r="D125" s="3">
         <v>6.16765757804371</v>
@@ -7161,12 +7238,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="17"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
         <v>25</v>
       </c>
@@ -7179,12 +7256,12 @@
         <v>5227</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="17"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
         <v>29</v>
       </c>
@@ -7197,12 +7274,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
       <c r="B133" s="15"/>
       <c r="C133" s="17"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
         <v>31</v>
       </c>
@@ -7215,10 +7292,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
       <c r="B135" s="15"/>
       <c r="C135" s="17"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E141" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="57">

--- a/documents/AppliedSciences/Basic_queries_macOS12.3.1.xlsx
+++ b/documents/AppliedSciences/Basic_queries_macOS12.3.1.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/graafitietokantaprojekti/documents/AppliedSciences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D2F084-63BA-4A47-A233-80CC8D98BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940C5821-39A8-6B45-B524-6D7A69C85F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="6020" windowWidth="37940" windowHeight="20840" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="19160" yWindow="16100" windowWidth="37940" windowHeight="20840" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Taul1!$A$93:$A$102</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Taul1!$B$92</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Taul1!$B$93:$B$102</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Taul1!$C$92</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Taul1!$C$93:$C$102</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -250,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -291,10 +298,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -397,7 +410,7 @@
             <c:numRef>
               <c:f>Taul1!$B$24:$B$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>576</c:v>
@@ -474,7 +487,7 @@
             <c:numRef>
               <c:f>Taul1!$C$24:$C$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>453</c:v>
@@ -584,7 +597,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -767,7 +780,7 @@
             <c:numRef>
               <c:f>Taul1!$B$58:$B$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>6550</c:v>
@@ -844,7 +857,7 @@
             <c:numRef>
               <c:f>Taul1!$C$58:$C$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5190</c:v>
@@ -954,7 +967,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1091,7 +1104,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$B$92</c:f>
+              <c:f>Taul1!$B$127</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1112,22 +1125,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$93:$A$102</c:f>
+              <c:f>Taul1!$A$128:$A$135</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>MySQL 5.1.41</c:v>
+                  <c:v>MariaDB 10.8.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MariaDB 10.8.3</c:v>
+                  <c:v>MySQL 8.0.29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MySQL 8.0.29</c:v>
+                  <c:v>Neo4J 4.4.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Neo4J 4.4.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Neo4J 4.4.8 CALL</c:v>
                 </c:pt>
               </c:strCache>
@@ -1135,31 +1145,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$B$93:$B$102</c:f>
+              <c:f>Taul1!$B$128:$B$135</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>276935.2</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7242</c:v>
+                  <c:v>5212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7674</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>212171</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>209816</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5553-3A47-B9D4-FAF8B853A5B1}"/>
+              <c16:uniqueId val="{00000000-F7DF-FE4B-971B-1C7D8B0D9198}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1168,7 +1175,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$C$92</c:f>
+              <c:f>Taul1!$C$127</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1189,22 +1196,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$93:$A$102</c:f>
+              <c:f>Taul1!$A$128:$A$135</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>MySQL 5.1.41</c:v>
+                  <c:v>MariaDB 10.8.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MariaDB 10.8.3</c:v>
+                  <c:v>MySQL 8.0.29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MySQL 8.0.29</c:v>
+                  <c:v>Neo4J 4.4.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Neo4J 4.4.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Neo4J 4.4.8 CALL</c:v>
                 </c:pt>
               </c:strCache>
@@ -1212,31 +1216,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$C$93:$C$102</c:f>
+              <c:f>Taul1!$C$128:$C$135</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>251137.6</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7117</c:v>
+                  <c:v>5227</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7615</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>215053</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>205198</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5553-3A47-B9D4-FAF8B853A5B1}"/>
+              <c16:uniqueId val="{00000001-F7DF-FE4B-971B-1C7D8B0D9198}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1249,11 +1250,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1456409456"/>
-        <c:axId val="1455729296"/>
+        <c:axId val="1516223088"/>
+        <c:axId val="1507327232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1456409456"/>
+        <c:axId val="1516223088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1297,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455729296"/>
+        <c:crossAx val="1507327232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1304,7 +1305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1455729296"/>
+        <c:axId val="1507327232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1325,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1355,7 +1356,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1456409456"/>
+        <c:crossAx val="1516223088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1449,7 +1450,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1461,7 +1492,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$B$127</c:f>
+              <c:f>Taul1!$B$92</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1482,19 +1513,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$128:$A$135</c:f>
+              <c:f>Taul1!$A$93:$A$102</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>MySQL 5.1.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>MariaDB 10.8.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>MySQL 8.0.29</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Neo4J 4.4.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Neo4J 4.4.8 CALL</c:v>
                 </c:pt>
               </c:strCache>
@@ -1502,28 +1536,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$B$128:$B$135</c:f>
+              <c:f>Taul1!$B$93:$B$102</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>59</c:v>
+                  <c:v>276935.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5212</c:v>
+                  <c:v>7242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>7674</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57</c:v>
+                  <c:v>212171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F7DF-FE4B-971B-1C7D8B0D9198}"/>
+              <c16:uniqueId val="{00000000-1B57-FE48-81AE-7302BAFC9554}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1532,7 +1569,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$C$127</c:f>
+              <c:f>Taul1!$C$92</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1553,19 +1590,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$128:$A$135</c:f>
+              <c:f>Taul1!$A$93:$A$102</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>MySQL 5.1.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>MariaDB 10.8.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>MySQL 8.0.29</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Neo4J 4.4.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Neo4J 4.4.8 CALL</c:v>
                 </c:pt>
               </c:strCache>
@@ -1573,28 +1613,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$C$128:$C$135</c:f>
+              <c:f>Taul1!$C$93:$C$102</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>251137.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5227</c:v>
+                  <c:v>7117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>7615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>215053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>205198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F7DF-FE4B-971B-1C7D8B0D9198}"/>
+              <c16:uniqueId val="{00000001-1B57-FE48-81AE-7302BAFC9554}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1607,11 +1650,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1516223088"/>
-        <c:axId val="1507327232"/>
+        <c:axId val="2030123775"/>
+        <c:axId val="2083036287"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1516223088"/>
+        <c:axId val="2030123775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1697,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1507327232"/>
+        <c:crossAx val="2083036287"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1662,7 +1705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1507327232"/>
+        <c:axId val="2083036287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,7 +1725,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1713,7 +1756,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1516223088"/>
+        <c:crossAx val="2030123775"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4013,16 +4056,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>159926</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>747889</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>162982</xdr:rowOff>
+      <xdr:rowOff>80667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>616186</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>60441</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>792575</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>178034</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4049,23 +4092,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1135945</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>139465</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1171223</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>127706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>333963</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>1646</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263408</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>48684</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Kaavio 4">
+        <xdr:cNvPr id="6" name="Kaavio 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDE1905-EC94-706B-3340-693CA4C13AE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFF06CF-58B7-0D0C-978E-3D4539BC0D9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4085,23 +4128,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1171223</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>127706</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1135945</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>92428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>263408</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>48684</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47037</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>1647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Kaavio 5">
+        <xdr:cNvPr id="2" name="Kaavio 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFF06CF-58B7-0D0C-978E-3D4539BC0D9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97526319-B75E-8C4C-9C86-AC220601A10A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4421,8 +4464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5084,7 +5127,7 @@
       <c r="A26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="18">
         <f>D18</f>
         <v>486</v>
       </c>
@@ -5095,14 +5138,14 @@
     </row>
     <row r="27" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="18">
         <f>J18</f>
         <v>464</v>
       </c>
@@ -5113,14 +5156,14 @@
     </row>
     <row r="29" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="18">
         <f>F18</f>
         <v>162</v>
       </c>
@@ -5131,14 +5174,14 @@
     </row>
     <row r="31" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="18">
         <f>H18</f>
         <v>149</v>
       </c>
@@ -5149,7 +5192,7 @@
     </row>
     <row r="33" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -5804,7 +5847,7 @@
       <c r="A60" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="18">
         <f>D52</f>
         <v>5549</v>
       </c>
@@ -5815,14 +5858,14 @@
     </row>
     <row r="61" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="17"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="18">
         <f>J52</f>
         <v>5337</v>
       </c>
@@ -5833,14 +5876,14 @@
     </row>
     <row r="63" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="17"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="18">
         <f>F52</f>
         <v>1868</v>
       </c>
@@ -5851,14 +5894,14 @@
     </row>
     <row r="65" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="17"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="18">
         <f>H52</f>
         <v>1776</v>
       </c>
@@ -5869,7 +5912,7 @@
     </row>
     <row r="67" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="17"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -6522,7 +6565,7 @@
       <c r="A95" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="14">
+      <c r="B95" s="18">
         <f>D87</f>
         <v>7242</v>
       </c>
@@ -6533,14 +6576,14 @@
     </row>
     <row r="96" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="14">
+      <c r="B97" s="18">
         <f>J87</f>
         <v>7674</v>
       </c>
@@ -6551,14 +6594,14 @@
     </row>
     <row r="98" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="17"/>
     </row>
     <row r="99" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B99" s="14">
+      <c r="B99" s="18">
         <f>F87</f>
         <v>212171</v>
       </c>
@@ -6569,14 +6612,14 @@
     </row>
     <row r="100" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="17"/>
     </row>
     <row r="101" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B101" s="14">
+      <c r="B101" s="18">
         <f>H87</f>
         <v>209816</v>
       </c>
@@ -6587,7 +6630,7 @@
     </row>
     <row r="102" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="17"/>
     </row>
     <row r="103" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7229,7 +7272,7 @@
       <c r="A128" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B128" s="14">
+      <c r="B128" s="18">
         <f>D122</f>
         <v>59</v>
       </c>
@@ -7240,14 +7283,14 @@
     </row>
     <row r="129" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="17"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B130" s="14">
+      <c r="B130" s="18">
         <f>J122</f>
         <v>5212</v>
       </c>
@@ -7258,14 +7301,14 @@
     </row>
     <row r="131" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="17"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B132" s="14">
+      <c r="B132" s="18">
         <f>F122</f>
         <v>33</v>
       </c>
@@ -7276,14 +7319,14 @@
     </row>
     <row r="133" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="17"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B134" s="14">
+      <c r="B134" s="18">
         <f>H122</f>
         <v>57</v>
       </c>
@@ -7294,7 +7337,7 @@
     </row>
     <row r="135" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="17"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -7304,11 +7347,42 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="C97:C98"/>
     <mergeCell ref="A134:A135"/>
@@ -7325,42 +7399,11 @@
     <mergeCell ref="C99:C100"/>
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
